--- a/events.xlsx
+++ b/events.xlsx
@@ -20,35 +20,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t xml:space="preserve">id</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+  <si>
+    <t xml:space="preserve">event_id</t>
   </si>
   <si>
     <t xml:space="preserve">event</t>
   </si>
   <si>
-    <t xml:space="preserve">Вы быстро идете вперед и вскоре оказываетесь в лесу. Даже странно, что о нем рассказывают столько страшных и невероятных историй: таинственный, зачарованный, с множеством ловушек и опасностей. Пока все тихо и спокойно, высокие и могучие деревья справа и слева пропускают достаточно солнечного света, дорога прямая и ровная, и вы немного расслабляетесь. Тем более что веселое щебетание птиц убеждает в том, что поблизости нет никакой опасности. По крайней мере, пока нет. Примерно через три четверти часа вы доходите до развилки. Путь раздваивается. Теперь вам предстоит принять первое решение - какую дорогу выбрать.
-      Вы пойдете:
-      По правой дороге? - 2.
-      По левой дороге? - 3. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дорога широка и удобна. По ней явно ходят чаще, чем по той, что отходила влево. Следы копыт в пыли говорят о том, что совсем недавно здесь проезжали всадники, и вы уже жалеете, что поверили сказам об ужасах Зачарованного леса и не отправились в путь верхом. Вот и развилка: наезженная дорога немного поворачивает влево и скрывается в лесу, другая, поуже, менее удобная и утоптанная, отходит от нее направо. Куда вы пойдете?
-      Налево? - 4.
-      Направо? - 5. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Тропинка выводит вас на развилку. Пойдете по дороге прямо (6) или налево (7)?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Вскоре ваше внимание привлекает дерево, растущее возле дороги. От других оно отличается величиной, и кажется, что это не одно, а три или четыре дерева, сросшихся вместе. Вы запрокидываете голову и смотрите вверх. В кроне явно спрятано чье-то гнездо или логово, оттуда спускается почти незаметная веревочная лестница, что-то сильно напоминающая. Но что? Хотите взобраться на дерево и посмотреть, кто там живет (8), или пойдете дальше (9)? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Дорога выводит на поляну. С вашей стороны почти вся трава вытоптана какими-то не слишком маленькими животными. К сожалению, вы не следопыт, который смог бы определить, кто именно здесь прогуливался. Нетрудно заметить, что с другой стороны поляны дорога продолжается. Туда вы и направляетесь — 10. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вы успеваете сделать по дороге всего несколько шагов, как из-за поворота слышится приближающийся стук копыт. Что вы предпримете? Быстро вернетесь обратно на перекресток и пойдете в другую сторону (11)? Или останетесь на дороге, чтобы узнать, кто едет вам навстречу (12)? </t>
+    <t xml:space="preserve">option_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вы находитесь перед входом в лабиринт. Желаете отыскать спрятанное сокровище?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вы вошли в лабиринт, здесь зябко. Налево ведет ход, освещенный мерцающим светом факелов.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">На нет и суда нет.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nothing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чем дальше вы шли, тем меньше было горящих факелов. Впереди тупик, но в полутьме вы замечаете справа проход.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Факелы окончательно погасли, вы в кромешной тьме. Впереди развилка — налево темный проход, оттуда периодически слышится шорох. В проходе справа виднеется огонек.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вы ничего не видите, но понимаете, что туннель ведет вниз. По пути попадается все больше неровностей, вы спотыкаетесь.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вы идете на свет, воздух становится затхлым. При приближении вы видите фонарь и тлеющую в нем свечу, из под завала торчит обрывок плаща. Похоже, это останки вашего предшественника. Рядом с завалом есть проход.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вы очнулись. Похоже, ваша нога сломана. Вы пытаетесь приподняться и рукой нащупываете что-то под собой. Вы лежите на груде обглоданных костей, вокруг усиливается шорох и загораются желтые огоньки голодных глаз.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">louse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вы идете вперед, фонарь освещает туннель. На стенах блестят капли воды, похоже, неподалеку есть водоем. Вы видите развилку — справа доносится журчание, а прямо перед вами туннель ведет вверх.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вокруг темно. Вы дотрагиваетесь до стен — они влажные. Вероятно, где-то неподалеку есть источник воды. В конце концов, вы оказываетесь на развилке — справа слышна подземная река, впереди же туннель ведет вверх.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вы идете на звук потока воды проверяя каждый шаг в темноте. Попытавшись в очередной раз найти опору вы подскальзываетесь и оказываетесь в воде. Бурный поток уносит вас за собой. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вы ничего не находите наверху, остается только пойти назад.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вы не можете позволить себе сдаться и отправиться ко входу в лабиринт, поэтому идете в реке.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Да</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отправиться в неизвестность</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пойти направо</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пойти на звук шороха</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пойти к свету</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ничего не остается, кроме как кубарем лететь вниз</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Взять фонарь и отправиться дальше</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отправиться дальше</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Идти к реке</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Идти на звуки воды</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Исследовать туннель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отправиться обратно к развилке</t>
   </si>
 </sst>
 </file>
@@ -63,7 +127,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -123,47 +186,56 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="121.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="74.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.59"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="5.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="31.4"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="64" min="8" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -173,53 +245,380 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>1002</v>
+      </c>
+      <c r="E3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>1003</v>
+      </c>
+      <c r="E5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>1004</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>1005</v>
+      </c>
+      <c r="E6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>1006</v>
+      </c>
+      <c r="E7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>1007</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>1008</v>
+      </c>
+      <c r="E8" s="0"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>1010</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>1011</v>
+      </c>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0"/>
+      <c r="G10" s="0"/>
+      <c r="H10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>1009</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>1011</v>
+      </c>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0"/>
+      <c r="H11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0"/>
+      <c r="G12" s="0"/>
+      <c r="H12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>1012</v>
+      </c>
+      <c r="E13" s="0"/>
+      <c r="F13" s="0"/>
+      <c r="G13" s="0"/>
+      <c r="H13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>1011</v>
+      </c>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
+      <c r="G14" s="0"/>
+      <c r="H14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0"/>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
+      <c r="G15" s="0"/>
+      <c r="H15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0"/>
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0"/>
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0"/>
+      <c r="B18" s="0"/>
+      <c r="C18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>1001</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>1002</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>1003</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>1004</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>1005</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>1006</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="1" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>1007</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>1008</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>1010</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>1012</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>1013</v>
+      </c>
+      <c r="C32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>1014</v>
+      </c>
+      <c r="B33" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>1015</v>
       </c>
     </row>
   </sheetData>
